--- a/dist/test.xlsx
+++ b/dist/test.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527F86EF-99D0-4A57-83BA-6B86EB19743F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangkaicun/project/code/excel/dist/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="第一个 sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="第二个 sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>字符串1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,15 +95,65 @@
   </si>
   <si>
     <t>Excel 读取测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串14</t>
+  </si>
+  <si>
+    <t>字符串15</t>
+  </si>
+  <si>
+    <t>字符串16</t>
+  </si>
+  <si>
+    <t>字符串17</t>
+  </si>
+  <si>
+    <t>字符串18</t>
+  </si>
+  <si>
+    <t>字符串19</t>
+  </si>
+  <si>
+    <t>字符串20</t>
+  </si>
+  <si>
+    <t>字符串21</t>
+  </si>
+  <si>
+    <t>字符串22</t>
+  </si>
+  <si>
+    <t>字符串23</t>
+  </si>
+  <si>
+    <t>字符串24</t>
+  </si>
+  <si>
+    <t>Excel 读取测试（第二页）</t>
+    <rPh sb="11" eb="12">
+      <t>tx</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fg</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>dmu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -147,14 +208,14 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,23 +500,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -733,4 +794,300 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>13400000013</v>
+      </c>
+      <c r="D3">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43748</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43779</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>13400000014</v>
+      </c>
+      <c r="D4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43749</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43780</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>13400000015</v>
+      </c>
+      <c r="D5">
+        <v>2.14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43750</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43781</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>13400000016</v>
+      </c>
+      <c r="D6">
+        <v>3.15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43751</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43782</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>13400000017</v>
+      </c>
+      <c r="D7">
+        <v>4.16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43752</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43783</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>13400000018</v>
+      </c>
+      <c r="D8">
+        <v>5.17</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43753</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43784</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>13400000019</v>
+      </c>
+      <c r="D9">
+        <v>6.18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>43754</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43785</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>13400000020</v>
+      </c>
+      <c r="D10">
+        <v>7.19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>43755</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43786</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>13400000021</v>
+      </c>
+      <c r="D11">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43756</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43787</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>13400000022</v>
+      </c>
+      <c r="D12">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43757</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43788</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>13400000023</v>
+      </c>
+      <c r="D13">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43758</v>
+      </c>
+      <c r="F13" s="1">
+        <v>43789</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>13400000024</v>
+      </c>
+      <c r="D14">
+        <v>11.23</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43759</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43790</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>